--- a/artfynd/A 55176-2024 artfynd.xlsx
+++ b/artfynd/A 55176-2024 artfynd.xlsx
@@ -1135,12 +1135,7 @@
         <v>104058669</v>
       </c>
       <c r="B6" t="n">
-        <v>78477</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>80219</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>546616.5767953519</v>
+        <v>546617</v>
       </c>
       <c r="R6" t="n">
-        <v>6916219.761872165</v>
+        <v>6916220</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>

--- a/artfynd/A 55176-2024 artfynd.xlsx
+++ b/artfynd/A 55176-2024 artfynd.xlsx
@@ -1135,7 +1135,7 @@
         <v>104058669</v>
       </c>
       <c r="B6" t="n">
-        <v>80219</v>
+        <v>80220</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 55176-2024 artfynd.xlsx
+++ b/artfynd/A 55176-2024 artfynd.xlsx
@@ -1135,7 +1135,7 @@
         <v>104058669</v>
       </c>
       <c r="B6" t="n">
-        <v>80220</v>
+        <v>80221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
